--- a/dp900_01/alua_mysql/entregas.xlsx
+++ b/dp900_01/alua_mysql/entregas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\dp900_01\alua_mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8A125-85EE-415C-B5C3-DED98B5E41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4024CED3-C78C-41B5-872B-A0B0C0B6A858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="253">
   <si>
     <t>Quevin Bispo</t>
   </si>
@@ -554,6 +554,249 @@
   </si>
   <si>
     <t>19-08540-4259</t>
+  </si>
+  <si>
+    <t>insert into clientes values</t>
+  </si>
+  <si>
+    <t>insert into telefones values</t>
+  </si>
+  <si>
+    <t>insert into entregadores values</t>
+  </si>
+  <si>
+    <t>insert into produtos values</t>
+  </si>
+  <si>
+    <t>insert into pedidos values</t>
+  </si>
+  <si>
+    <t>20:52:48</t>
+  </si>
+  <si>
+    <t>21:17:17</t>
+  </si>
+  <si>
+    <t>21:44:38</t>
+  </si>
+  <si>
+    <t>15:50:24</t>
+  </si>
+  <si>
+    <t>16:43:41</t>
+  </si>
+  <si>
+    <t>17:16:48</t>
+  </si>
+  <si>
+    <t>16:19:12</t>
+  </si>
+  <si>
+    <t>16:52:19</t>
+  </si>
+  <si>
+    <t>17:28:19</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>18:14:24</t>
+  </si>
+  <si>
+    <t>19:06:14</t>
+  </si>
+  <si>
+    <t>20:38:24</t>
+  </si>
+  <si>
+    <t>20:55:41</t>
+  </si>
+  <si>
+    <t>21:40:19</t>
+  </si>
+  <si>
+    <t>17:55:41</t>
+  </si>
+  <si>
+    <t>18:40:19</t>
+  </si>
+  <si>
+    <t>15:07:12</t>
+  </si>
+  <si>
+    <t>16:03:22</t>
+  </si>
+  <si>
+    <t>23:45:36</t>
+  </si>
+  <si>
+    <t>00:38:53</t>
+  </si>
+  <si>
+    <t>00:53:17</t>
+  </si>
+  <si>
+    <t>21:14:24</t>
+  </si>
+  <si>
+    <t>14:52:48</t>
+  </si>
+  <si>
+    <t>15:21:36</t>
+  </si>
+  <si>
+    <t>15:40:19</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:31:41</t>
+  </si>
+  <si>
+    <t>14:09:36</t>
+  </si>
+  <si>
+    <t>15:01:26</t>
+  </si>
+  <si>
+    <t>15:54:43</t>
+  </si>
+  <si>
+    <t>21:50:24</t>
+  </si>
+  <si>
+    <t>22:33:36</t>
+  </si>
+  <si>
+    <t>22:59:31</t>
+  </si>
+  <si>
+    <t>23:31:12</t>
+  </si>
+  <si>
+    <t>00:28:48</t>
+  </si>
+  <si>
+    <t>01:24:58</t>
+  </si>
+  <si>
+    <t>21:36:00</t>
+  </si>
+  <si>
+    <t>22:29:17</t>
+  </si>
+  <si>
+    <t>23:11:02</t>
+  </si>
+  <si>
+    <t>21:07:12</t>
+  </si>
+  <si>
+    <t>21:47:31</t>
+  </si>
+  <si>
+    <t>22:13:26</t>
+  </si>
+  <si>
+    <t>23:02:24</t>
+  </si>
+  <si>
+    <t>23:19:41</t>
+  </si>
+  <si>
+    <t>00:10:05</t>
+  </si>
+  <si>
+    <t>16:48:00</t>
+  </si>
+  <si>
+    <t>17:34:05</t>
+  </si>
+  <si>
+    <t>17:57:07</t>
+  </si>
+  <si>
+    <t>13:55:12</t>
+  </si>
+  <si>
+    <t>14:12:29</t>
+  </si>
+  <si>
+    <t>14:54:14</t>
+  </si>
+  <si>
+    <t>16:32:10</t>
+  </si>
+  <si>
+    <t>17:02:24</t>
+  </si>
+  <si>
+    <t>13:12:00</t>
+  </si>
+  <si>
+    <t>13:33:36</t>
+  </si>
+  <si>
+    <t>14:03:50</t>
+  </si>
+  <si>
+    <t>17:45:36</t>
+  </si>
+  <si>
+    <t>18:04:19</t>
+  </si>
+  <si>
+    <t>18:48:58</t>
+  </si>
+  <si>
+    <t>18:43:12</t>
+  </si>
+  <si>
+    <t>19:23:31</t>
+  </si>
+  <si>
+    <t>19:49:26</t>
+  </si>
+  <si>
+    <t>19:43:41</t>
+  </si>
+  <si>
+    <t>13:46:34</t>
+  </si>
+  <si>
+    <t>14:18:14</t>
+  </si>
+  <si>
+    <t>18:57:36</t>
+  </si>
+  <si>
+    <t>19:53:46</t>
+  </si>
+  <si>
+    <t>20:25:26</t>
+  </si>
+  <si>
+    <t>21:34:34</t>
+  </si>
+  <si>
+    <t>21:54:43</t>
+  </si>
+  <si>
+    <t>15:41:46</t>
+  </si>
+  <si>
+    <t>16:13:26</t>
+  </si>
+  <si>
+    <t>17:38:24</t>
+  </si>
+  <si>
+    <t>18:11:31</t>
+  </si>
+  <si>
+    <t>insert into itens values</t>
   </si>
 </sst>
 </file>
@@ -563,7 +806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +943,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,13 +1301,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1415,9 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3161,10 +3413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6907A4CE-15C9-4565-B320-4750AE5A2AC0}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3429,7 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -3196,8 +3448,11 @@
       <c r="F1" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3213,8 +3468,12 @@
       <c r="E2">
         <v>940</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>"(null,'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"'),"</f>
+        <v>(null,'101.346.425-70','Quevin Bispo','13919-404','940',''),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3230,8 +3489,12 @@
       <c r="E3">
         <v>604</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G30" si="0">"(null,'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"'),"</f>
+        <v>(null,'484.876.090-90','Sara de Souza Alves','13919-405','604',''),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3247,8 +3510,12 @@
       <c r="E4">
         <v>289</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'549.915.231-41','Evandro Silva','13919-406','289',''),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3264,8 +3531,12 @@
       <c r="E5">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'870.478.717-05','Zélia Neto','13919-407','233',''),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3281,8 +3552,12 @@
       <c r="E6">
         <v>488</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'659.924.344-45','Tatiane Oliveira Teixeira','13919-408','488',''),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3301,8 +3576,12 @@
       <c r="F7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'455.745.981-16','Gilberto Martim','13919-409','776','fundos'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3318,8 +3597,12 @@
       <c r="E8">
         <v>413</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'219.826.395-55','Ivo Souza','13919-410','413',''),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3335,8 +3618,12 @@
       <c r="E9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'484.584.060-04','Tatiane Silva Souza','13919-411','47',''),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3355,8 +3642,12 @@
       <c r="F10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'714.626.501-39','Umberto Oliveira Neto','13919-412','249','AP14 BL24'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3372,8 +3663,12 @@
       <c r="E11">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'936.097.170-76','Gisele Matos','13919-413','231',''),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3389,8 +3684,12 @@
       <c r="E12">
         <v>444</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'829.070.043-10','Douglas de Oliveira Oliveira','13919-414','444',''),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3406,8 +3705,12 @@
       <c r="E13">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'448.299.120-14','Timóteo Bispo','13919-415','77',''),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3423,8 +3726,12 @@
       <c r="E14">
         <v>227</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'164.684.026-70','Hugo Bispo','13919-404','227',''),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3440,8 +3747,12 @@
       <c r="E15">
         <v>375</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'485.230.922-18','Carla Bispo Júnior','13919-405','375',''),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3460,8 +3771,13 @@
       <c r="F16" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'390.046.454-54','Helena Matos','13919-406','421','AP14 BL26'),</v>
+      </c>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3477,8 +3793,12 @@
       <c r="E17">
         <v>336</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'868.308.397-77','Willian Oliveira Neto','13919-407','336',''),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3494,8 +3814,12 @@
       <c r="E18">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'629.872.318-81','Xeila Bispo','13919-408','210',''),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3511,8 +3835,12 @@
       <c r="E19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'715.425.766-01','Flávia Alves','13919-409','30',''),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3531,8 +3859,12 @@
       <c r="F20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'199.535.473-27','Paula Custódio Mattos','13919-410','886','fundos'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3548,8 +3880,12 @@
       <c r="E21">
         <v>603</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'247.129.753-69','Hugo Martins','13919-411','603',''),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3565,8 +3901,12 @@
       <c r="E22">
         <v>753</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'502.923.709-70','Valéria Martins Custódio','13919-412','753',''),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3585,8 +3925,12 @@
       <c r="F23" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'174.437.799-50','Evandro Oliveira','13919-413','536','AP44 BL10'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3602,8 +3946,12 @@
       <c r="E24">
         <v>769</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'838.879.271-76','Antônio Custódio','13919-414','769',''),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3619,8 +3967,12 @@
       <c r="E25">
         <v>663</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'636.671.293-00','Carla Silva','13919-415','663',''),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3636,8 +3988,12 @@
       <c r="E26">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'894.979.642-26','Luis Filho Teixeira','13919-412','400',''),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3653,8 +4009,12 @@
       <c r="E27">
         <v>542</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'148.904.171-09','Eva Silva','13919-413','542',''),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3670,8 +4030,12 @@
       <c r="E28">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'500.698.790-10','Xailo Souza de Souza','13919-414','140',''),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3687,8 +4051,12 @@
       <c r="E29">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'599.764.172-41','Norberto Teixeira','13919-415','103',''),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3703,6 +4071,10 @@
       </c>
       <c r="E30">
         <v>93</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'282.794.051-51','Bruna Oliveira Neto','13919-404','93',''),</v>
       </c>
     </row>
   </sheetData>
@@ -3713,9 +4085,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA98A1B-3FE4-4BB3-A6FA-C8518130ED54}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3723,265 +4097,399 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"'),"</f>
+        <v>(1,'19-04200-6656'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C33" si="0">"("&amp;A3&amp;",'"&amp;B3&amp;"'),"</f>
+        <v>(1,'19-26629-1637'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'19-25657-6328'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'19-58283-5280'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'19-97210-3688'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'19-76473-3009'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'19-32887-0288'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'19-21656-6673'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'19-40818-5626'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'19-23800-1397'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'19-70369-6223'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'19-59529-5611'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,'19-08540-4259'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,'19-43807-6196'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,'19-91227-8846'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,'19-84570-8790'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,'19-06113-3302'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,'19-05900-9624'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,'19-65329-2409'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,'19-27994-3411'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,'19-81435-9997'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,'19-68006-4771'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,'19-47152-0661'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,'19-23779-0730'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,'19-85287-3890'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,'19-26713-0996'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,'19-16502-2743'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,'19-82890-0575'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,'19-75170-5820'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,'19-19524-0713'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,'19-65072-7747'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,'19-65099-7930'),</v>
       </c>
     </row>
   </sheetData>
@@ -3992,10 +4500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D8BF3D-B54C-43E7-9CE8-C8266DBB4F4A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,7 +4513,7 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
@@ -4015,8 +4523,11 @@
       <c r="C1" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4026,8 +4537,12 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>"(null,'"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
+        <v>(null,'Jair Souza','moto'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4037,8 +4552,12 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">"(null,'"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
+        <v>(null,'Felizberto Souza','bicicleta'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4048,8 +4567,12 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'Huberto Silva','moto'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4058,6 +4581,10 @@
       </c>
       <c r="C5" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'Dagoberto Ribeiro','moto'),</v>
       </c>
     </row>
   </sheetData>
@@ -4068,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE276E6-39E3-4C41-B797-6EB936C2B983}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4608,7 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -4091,85 +4618,119 @@
       <c r="C1" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"(null,'"&amp;B2&amp;"',"&amp;C2&amp;"),"</f>
+        <v>(null,'Refrigerante - 2L',12),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D8" si="0">"(null,'"&amp;B3&amp;"',"&amp;C3&amp;"),"</f>
+        <v>(null,'Refrigerante - Lata',6),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'X-Bacon',18),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'X-Burguer',15),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'X-Egg',17),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'X-Frango',20),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C8" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6</v>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,'X-Tudo',22),</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4177,16 +4738,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB4C042-D4E8-401A-8032-6ADFD92B0848}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -4194,12 +4755,12 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>123</v>
@@ -4216,8 +4777,11 @@
       <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4230,17 +4794,22 @@
       <c r="D2" s="1">
         <v>44784</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"(null,"&amp;B2&amp;","&amp;C2&amp;",date_sub(curdate(),interval 1 day),'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"'),"</f>
+        <v>(null,1,1,date_sub(curdate(),interval 1 day),'20:52:48','21:17:17','21:44:38'),</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4253,17 +4822,21 @@
       <c r="D3" s="1">
         <v>44784</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H30" si="0">"(null,"&amp;B3&amp;","&amp;C3&amp;",date_sub(curdate(),interval 1 day),'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"'),"</f>
+        <v>(null,2,4,date_sub(curdate(),interval 1 day),'15:50:24','16:43:41','17:16:48'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4276,17 +4849,21 @@
       <c r="D4" s="1">
         <v>44784</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,3,2,date_sub(curdate(),interval 1 day),'16:19:12','16:52:19','17:28:19'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4299,17 +4876,21 @@
       <c r="D5" s="1">
         <v>44784</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,4,4,date_sub(curdate(),interval 1 day),'18:00:00','18:14:24','19:06:14'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4322,17 +4903,21 @@
       <c r="D6" s="1">
         <v>44784</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,5,2,date_sub(curdate(),interval 1 day),'20:38:24','20:55:41','21:40:19'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4345,17 +4930,21 @@
       <c r="D7" s="1">
         <v>44784</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,6,1,date_sub(curdate(),interval 1 day),'17:16:48','17:55:41','18:40:19'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4368,17 +4957,21 @@
       <c r="D8" s="1">
         <v>44784</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,7,2,date_sub(curdate(),interval 1 day),'15:07:12','16:03:22','16:52:19'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4391,17 +4984,21 @@
       <c r="D9" s="1">
         <v>44784</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,8,3,date_sub(curdate(),interval 1 day),'23:45:36','00:38:53','00:53:17'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4414,17 +5011,21 @@
       <c r="D10" s="1">
         <v>44784</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,9,1,date_sub(curdate(),interval 1 day),'20:38:24','20:52:48','21:14:24'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4437,17 +5038,21 @@
       <c r="D11" s="1">
         <v>44784</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,10,3,date_sub(curdate(),interval 1 day),'14:52:48','15:21:36','15:40:19'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4460,17 +5065,21 @@
       <c r="D12" s="1">
         <v>44784</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,11,1,date_sub(curdate(),interval 1 day),'23:45:36','00:00:00','00:31:41'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4483,17 +5092,21 @@
       <c r="D13" s="1">
         <v>44784</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,12,3,date_sub(curdate(),interval 1 day),'14:09:36','15:01:26','15:54:43'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4506,17 +5119,21 @@
       <c r="D14" s="1">
         <v>44784</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,13,1,date_sub(curdate(),interval 1 day),'21:50:24','22:33:36','22:59:31'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4529,17 +5146,21 @@
       <c r="D15" s="1">
         <v>44784</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,14,1,date_sub(curdate(),interval 1 day),'23:31:12','00:28:48','01:24:58'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4552,17 +5173,21 @@
       <c r="D16" s="1">
         <v>44784</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,15,1,date_sub(curdate(),interval 1 day),'21:36:00','22:29:17','23:11:02'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4575,17 +5200,21 @@
       <c r="D17" s="1">
         <v>44784</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,16,1,date_sub(curdate(),interval 1 day),'21:07:12','21:47:31','22:13:26'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4598,17 +5227,21 @@
       <c r="D18" s="1">
         <v>44784</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,17,3,date_sub(curdate(),interval 1 day),'23:02:24','23:19:41','00:10:05'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4621,17 +5254,21 @@
       <c r="D19" s="1">
         <v>44784</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,18,1,date_sub(curdate(),interval 1 day),'16:48:00','17:34:05','17:57:07'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4644,17 +5281,21 @@
       <c r="D20" s="1">
         <v>44784</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,19,3,date_sub(curdate(),interval 1 day),'13:55:12','14:12:29','14:54:14'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4667,17 +5308,21 @@
       <c r="D21" s="1">
         <v>44784</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,20,1,date_sub(curdate(),interval 1 day),'15:50:24','16:32:10','17:02:24'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4690,17 +5335,21 @@
       <c r="D22" s="1">
         <v>44784</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,21,3,date_sub(curdate(),interval 1 day),'13:12:00','13:33:36','14:03:50'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4713,17 +5362,21 @@
       <c r="D23" s="1">
         <v>44784</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,22,3,date_sub(curdate(),interval 1 day),'17:45:36','18:04:19','18:48:58'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4736,17 +5389,21 @@
       <c r="D24" s="1">
         <v>44784</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,23,2,date_sub(curdate(),interval 1 day),'18:43:12','19:23:31','19:49:26'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4759,17 +5416,21 @@
       <c r="D25" s="1">
         <v>44784</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,24,1,date_sub(curdate(),interval 1 day),'18:14:24','19:06:14','19:43:41'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4782,17 +5443,21 @@
       <c r="D26" s="1">
         <v>44784</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,25,1,date_sub(curdate(),interval 1 day),'13:12:00','13:46:34','14:18:14'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4805,17 +5470,21 @@
       <c r="D27" s="1">
         <v>44784</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,26,4,date_sub(curdate(),interval 1 day),'18:57:36','19:53:46','20:25:26'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4828,17 +5497,21 @@
       <c r="D28" s="1">
         <v>44784</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,27,4,date_sub(curdate(),interval 1 day),'20:38:24','21:34:34','21:54:43'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4851,17 +5524,21 @@
       <c r="D29" s="1">
         <v>44784</v>
       </c>
-      <c r="E29" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,28,2,date_sub(curdate(),interval 1 day),'15:07:12','15:41:46','16:13:26'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4874,15 +5551,22 @@
       <c r="D30" s="1">
         <v>44784</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.41379629629629627</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.3354166666666667</v>
-      </c>
+      <c r="E30" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>(null,29,2,date_sub(curdate(),interval 1 day),'16:48:00','17:38:24','18:11:31'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4894,9 +5578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697886D0-0C73-4119-9509-EB94C6EDA01F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4915,7 +5597,9 @@
       <c r="C1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4927,6 +5611,10 @@
       <c r="C2">
         <v>4</v>
       </c>
+      <c r="D2" t="str">
+        <f>"("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;"),"</f>
+        <v>(1,2,4),</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4938,6 +5626,10 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D30" si="0">"("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;"),"</f>
+        <v>(2,1,5),</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4948,6 +5640,10 @@
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,3,1),</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,6 +5656,10 @@
       <c r="C5">
         <v>6</v>
       </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,3,6),</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4971,6 +5671,10 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,3,1),</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4982,6 +5686,10 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,1,1),</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4993,6 +5701,10 @@
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,1,6),</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5004,6 +5716,10 @@
       <c r="C9">
         <v>7</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,3,7),</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5015,6 +5731,10 @@
       <c r="C10">
         <v>3</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,2,3),</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5026,6 +5746,10 @@
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,2,5),</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5037,6 +5761,10 @@
       <c r="C12">
         <v>7</v>
       </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,3,7),</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5048,6 +5776,10 @@
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,2,3),</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5059,6 +5791,10 @@
       <c r="C14">
         <v>2</v>
       </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,1,2),</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5070,6 +5806,10 @@
       <c r="C15">
         <v>5</v>
       </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,3,5),</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5081,8 +5821,12 @@
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,1,2),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5092,8 +5836,12 @@
       <c r="C17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,3,4),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5103,8 +5851,12 @@
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,2,5),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5114,8 +5866,12 @@
       <c r="C19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,1,6),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5125,8 +5881,12 @@
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,2,2),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5136,8 +5896,12 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,2,2),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5147,8 +5911,12 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,1,1),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5158,8 +5926,12 @@
       <c r="C23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,3,5),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5169,8 +5941,12 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,3,1),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5180,8 +5956,12 @@
       <c r="C25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,2,6),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5191,8 +5971,12 @@
       <c r="C26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,3,4),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5202,8 +5986,12 @@
       <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,3,3),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5213,8 +6001,12 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,1,2),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5224,8 +6016,12 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,2,1),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5234,6 +6030,10 @@
       </c>
       <c r="C30">
         <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,2,3),</v>
       </c>
     </row>
   </sheetData>
